--- a/webserver/webserver/static/jira-currenttime.xlsx
+++ b/webserver/webserver/static/jira-currenttime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="15" windowWidth="26835" windowHeight="11565"/>
+    <workbookView xWindow="885" yWindow="15" windowWidth="26835" windowHeight="11565" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="2" r:id="rId1"/>
@@ -34,8 +34,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="workentries-in-currenttime-with-errors" type="6" refreshedVersion="4" background="1" saveData="1">
-    <textPr prompt="0" codePage="65001" sourceFile="https://sesam.bouvet.no/jira-currenttime-checker/workentries-in-currenttime-with-errors.csv" decimal="," thousands=" ">
+  <connection id="2" name="currenttime-with-jira-keys.csv" type="6" reconnectionMethod="2" refreshedVersion="4" background="1" saveData="1">
+    <textPr prompt="0" codePage="65001" sourceFile="https://sesam.bouvet.no/jira-currenttime-checker/currenttime-with-jira-keys.csv" decimal="," thousands=" ">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -59,18 +59,12 @@
     <t>This worksheet displays problems with CurrentTime entries that refer to JIRA-issues in the "Merknad" field.</t>
   </si>
   <si>
-    <t xml:space="preserve">This worksheet is linked to this file: "http://sesam.bouvet.no/jira-currenttime-checker/workentries-in-currenttime-with-errors.csv". </t>
-  </si>
-  <si>
     <t>Do a "Data" =&gt; "Refresh All" to pull down a new version of the source-data.</t>
   </si>
   <si>
     <t>This worksheet displays differences between the total number of hours logged in JIRA and the total number of hours logged in CurrentTime.</t>
   </si>
   <si>
-    <t xml:space="preserve">This worksheet is linked to this file: "http://sesam.bouvet.no/jira-currenttime-checker/compare-totals.csv". </t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>JIRA keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This worksheet is linked to this file: "https://sesam.bouvet.no/jira-currenttime-checker/currenttime-with-jira-keys.csv". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This worksheet is linked to this file: "https://sesam.bouvet.no/jira-currenttime-checker/compare-totals.csv". </t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,34 +463,34 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -603,44 +603,44 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>12</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
